--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1098,11 +1098,22 @@
       <c r="A57" s="7" t="n">
         <v>45419</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="4" t="n">
         <v>1.203086921202275</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="4" t="n">
         <v>0.3584530696785662</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6857585139318886</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4604409245315487</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1109,11 +1109,33 @@
       <c r="A58" s="7" t="n">
         <v>45420</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="4" t="n">
         <v>0.6857585139318886</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="4" t="n">
         <v>0.4604409245315487</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>0.6681764503639924</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>0.4843347949878483</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8426252646436133</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.613543217019449</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1131,11 +1131,22 @@
       <c r="A60" s="7" t="n">
         <v>45422</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="4" t="n">
         <v>0.8426252646436133</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="4" t="n">
         <v>0.613543217019449</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5709062418386002</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4955682467619709</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1142,11 +1142,22 @@
       <c r="A61" s="7" t="n">
         <v>45426</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="4" t="n">
         <v>0.5709062418386002</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="4" t="n">
         <v>0.4955682467619709</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.2023517814392339</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2569099071248485</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1153,11 +1153,22 @@
       <c r="A62" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="4" t="n">
         <v>0.2023517814392339</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="4" t="n">
         <v>0.2569099071248485</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.597119775201967</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5974900331215222</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1164,11 +1164,33 @@
       <c r="A63" s="7" t="n">
         <v>45429</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="4" t="n">
         <v>0.597119775201967</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="4" t="n">
         <v>0.5974900331215222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>0.597119775201967</v>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>0.5974900331215222</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3546461210059369</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5448337872881756</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1186,11 +1186,22 @@
       <c r="A65" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="4" t="n">
         <v>0.3546461210059369</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="4" t="n">
         <v>0.5448337872881756</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6868559304910082</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5652924865234064</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1197,11 +1197,22 @@
       <c r="A66" s="7" t="n">
         <v>45433</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="4" t="n">
         <v>0.6868559304910082</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="4" t="n">
         <v>0.5652924865234064</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.957809141980972</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9824359752091875</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1208,11 +1208,22 @@
       <c r="A67" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="4" t="n">
         <v>0.957809141980972</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="4" t="n">
         <v>0.9824359752091875</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9681952990128813</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.07504367264746</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1219,11 +1219,22 @@
       <c r="A68" s="7" t="n">
         <v>45435</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="4" t="n">
         <v>0.9681952990128813</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="4" t="n">
         <v>1.07504367264746</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9876187638626809</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7659150940832552</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1230,11 +1230,22 @@
       <c r="A69" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="4" t="n">
         <v>0.9876187638626809</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="4" t="n">
         <v>0.7659150940832552</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.134529624124018</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.37018707106929</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1241,11 +1241,22 @@
       <c r="A70" s="7" t="n">
         <v>45439</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="4" t="n">
         <v>1.134529624124018</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="4" t="n">
         <v>1.37018707106929</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.018684654300169</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7502306083796387</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1252,11 +1252,22 @@
       <c r="A71" s="7" t="n">
         <v>45440</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="4" t="n">
         <v>1.018684654300169</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="4" t="n">
         <v>0.7502306083796387</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.709358244430933</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.316383862527845</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1263,11 +1263,22 @@
       <c r="A72" s="7" t="n">
         <v>45441</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="4" t="n">
         <v>1.709358244430933</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="4" t="n">
         <v>1.316383862527845</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8367392106233862</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.13688931550047</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1274,11 +1274,22 @@
       <c r="A73" s="7" t="n">
         <v>45443</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="4" t="n">
         <v>0.8367392106233862</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="4" t="n">
         <v>1.13688931550047</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.044849574185818</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.302043269438204</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1285,11 +1285,22 @@
       <c r="A74" s="7" t="n">
         <v>45446</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="4" t="n">
         <v>1.044849574185818</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="4" t="n">
         <v>1.302043269438204</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.118028326798432</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.049206028870939</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1296,11 +1296,22 @@
       <c r="A75" s="7" t="n">
         <v>45447</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="4" t="n">
         <v>1.118028326798432</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="4" t="n">
         <v>1.049206028870939</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9367419367419367</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.13789032643198</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1307,11 +1307,22 @@
       <c r="A76" s="7" t="n">
         <v>45448</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="4" t="n">
         <v>0.9367419367419367</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="4" t="n">
         <v>1.13789032643198</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9170399274545904</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.543871471749954</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1318,11 +1318,22 @@
       <c r="A77" s="7" t="n">
         <v>45450</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="4" t="n">
         <v>0.9170399274545904</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="4" t="n">
         <v>1.543871471749954</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9434651656544709</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.177679649251599</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1329,11 +1329,22 @@
       <c r="A78" s="7" t="n">
         <v>45453</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="4" t="n">
         <v>0.9434651656544709</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="4" t="n">
         <v>1.177679649251599</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8819631712766777</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.340279156265094</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1340,11 +1340,22 @@
       <c r="A79" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="4" t="n">
         <v>0.8819631712766777</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="4" t="n">
         <v>1.340279156265094</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9947915785913588</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.584579890004676</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1351,11 +1351,22 @@
       <c r="A80" s="7" t="n">
         <v>45455</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="4" t="n">
         <v>0.9947915785913588</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="4" t="n">
         <v>1.584579890004676</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.116540331591822</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.577485616102674</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1362,11 +1362,22 @@
       <c r="A81" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="4" t="n">
         <v>1.116540331591822</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="4" t="n">
         <v>1.577485616102674</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.283591594141371</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.936672452045122</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1373,11 +1373,22 @@
       <c r="A82" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="4" t="n">
         <v>1.283591594141371</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="4" t="n">
         <v>1.936672452045122</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.395838738131064</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.707789957795812</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1384,11 +1384,22 @@
       <c r="A83" s="7" t="n">
         <v>45460</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="4" t="n">
         <v>1.395838738131064</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="4" t="n">
         <v>5.707789957795812</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.10576603522765</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.199185942482417</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1395,11 +1395,22 @@
       <c r="A84" s="7" t="n">
         <v>45461</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="4" t="n">
         <v>1.10576603522765</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="4" t="n">
         <v>2.199185942482417</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.284137724934361</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.01353255253652</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1406,11 +1406,22 @@
       <c r="A85" s="7" t="n">
         <v>45462</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="4" t="n">
         <v>1.284137724934361</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="4" t="n">
         <v>4.01353255253652</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.6501625323617234</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.569039087504209</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1417,11 +1417,33 @@
       <c r="A86" s="7" t="n">
         <v>45463</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="4" t="n">
         <v>0.6501625323617234</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="4" t="n">
         <v>2.569039087504209</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>2.178889359898262</v>
+      </c>
+      <c r="C87" s="4" t="n">
+        <v>3.463621199296903</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4896902210856828</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.254881640102573</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1439,11 +1439,22 @@
       <c r="A88" s="7" t="n">
         <v>45464</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="4" t="n">
         <v>0.4896902210856828</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="4" t="n">
         <v>1.254881640102573</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.511560921717172</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.6936149327845875</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1450,11 +1450,22 @@
       <c r="A89" s="7" t="n">
         <v>45467</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="4" t="n">
         <v>1.511560921717172</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="4" t="n">
         <v>0.6936149327845875</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.086769064942064</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7774636054495105</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1461,11 +1461,22 @@
       <c r="A90" s="7" t="n">
         <v>45468</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="4" t="n">
         <v>1.086769064942064</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="4" t="n">
         <v>0.7774636054495105</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.940639525116201</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.6628791255047932</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1472,11 +1472,22 @@
       <c r="A91" s="7" t="n">
         <v>45469</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="4" t="n">
         <v>0.940639525116201</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="4" t="n">
         <v>0.6628791255047932</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7894835580092729</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7201050763560886</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1483,11 +1483,22 @@
       <c r="A92" s="7" t="n">
         <v>45470</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="4" t="n">
         <v>0.7894835580092729</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="4" t="n">
         <v>0.7201050763560886</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.076462833384038</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7853055520001727</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1494,11 +1494,22 @@
       <c r="A93" s="7" t="n">
         <v>45471</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="4" t="n">
         <v>1.076462833384038</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="4" t="n">
         <v>0.7853055520001727</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9366148063472381</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.6908229309780614</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1505,11 +1505,22 @@
       <c r="A94" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="4" t="n">
         <v>0.9366148063472381</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="4" t="n">
         <v>0.6908229309780614</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9672024435431376</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.6198635296244418</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1516,11 +1516,22 @@
       <c r="A95" s="7" t="n">
         <v>45475</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="4" t="n">
         <v>0.9672024435431376</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="4" t="n">
         <v>0.6198635296244418</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.138019141656923</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.5161089008958415</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1527,11 +1527,22 @@
       <c r="A96" s="7" t="n">
         <v>45476</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="4" t="n">
         <v>1.138019141656923</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="4" t="n">
         <v>0.5161089008958415</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9604075158613958</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.4135304037774318</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1538,11 +1538,22 @@
       <c r="A97" s="7" t="n">
         <v>45477</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="4" t="n">
         <v>0.9604075158613958</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="4" t="n">
         <v>0.4135304037774318</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8955627917925379</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.5160929936734702</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1549,11 +1549,22 @@
       <c r="A98" s="7" t="n">
         <v>45478</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="4" t="n">
         <v>0.8955627917925379</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="4" t="n">
         <v>0.5160929936734702</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.5693013034252804</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.6026364919729854</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1560,11 +1560,22 @@
       <c r="A99" s="7" t="n">
         <v>45481</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="4" t="n">
         <v>0.5693013034252804</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="4" t="n">
         <v>0.6026364919729854</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8170052209011539</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.4259412974408296</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1571,11 +1571,22 @@
       <c r="A100" s="7" t="n">
         <v>45482</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="4" t="n">
         <v>0.8170052209011539</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="4" t="n">
         <v>0.4259412974408296</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8703677275105847</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1974108582851377</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1582,11 +1582,22 @@
       <c r="A101" s="7" t="n">
         <v>45483</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="4" t="n">
         <v>0.8703677275105847</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="4" t="n">
         <v>0.1974108582851377</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.100257263922518</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.3524329904191604</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1593,11 +1593,22 @@
       <c r="A102" s="7" t="n">
         <v>45484</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="4" t="n">
         <v>1.100257263922518</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="4" t="n">
         <v>0.3524329904191604</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.4931406888499708</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.3771792109541572</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1604,11 +1604,22 @@
       <c r="A103" s="7" t="n">
         <v>45485</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="4" t="n">
         <v>0.4931406888499708</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="4" t="n">
         <v>0.3771792109541572</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.500486272162789</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.2218126096653565</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1615,11 +1615,22 @@
       <c r="A104" s="7" t="n">
         <v>45488</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="4" t="n">
         <v>0.500486272162789</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="4" t="n">
         <v>0.2218126096653565</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.2689509891050327</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.243570895762663</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1626,11 +1626,22 @@
       <c r="A105" s="7" t="n">
         <v>45489</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="4" t="n">
         <v>0.2689509891050327</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="4" t="n">
         <v>0.243570895762663</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5904323019530393</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.1456360030032661</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1637,11 +1637,22 @@
       <c r="A106" s="7" t="n">
         <v>45490</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="4" t="n">
         <v>0.5904323019530393</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="4" t="n">
         <v>0.1456360030032661</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5508113734210153</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.4114555019090856</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1648,11 +1648,22 @@
       <c r="A107" s="7" t="n">
         <v>45491</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="4" t="n">
         <v>0.5508113734210153</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="4" t="n">
         <v>0.4114555019090856</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.4762889757143952</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5589970663534632</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1659,11 +1659,22 @@
       <c r="A108" s="7" t="n">
         <v>45492</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="4" t="n">
         <v>0.4762889757143952</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="4" t="n">
         <v>0.5589970663534632</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5323296141954563</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.6395282964152395</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1670,11 +1670,22 @@
       <c r="A109" s="7" t="n">
         <v>45495</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="4" t="n">
         <v>0.5323296141954563</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="4" t="n">
         <v>0.6395282964152395</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5528273489572135</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.6586657106662406</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1681,11 +1681,22 @@
       <c r="A110" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="4" t="n">
         <v>0.5528273489572135</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="4" t="n">
         <v>0.6586657106662406</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5593497708924285</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.7277160792218682</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1692,11 +1692,22 @@
       <c r="A111" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="4" t="n">
         <v>0.5593497708924285</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="4" t="n">
         <v>0.7277160792218682</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7566725786217935</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.8207781442270119</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1703,11 +1703,22 @@
       <c r="A112" s="7" t="n">
         <v>45498</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="4" t="n">
         <v>0.7566725786217935</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="4" t="n">
         <v>0.8207781442270119</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6277559853915866</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.3419341677202448</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1714,11 +1714,22 @@
       <c r="A113" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="4" t="n">
         <v>0.6277559853915866</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="4" t="n">
         <v>0.3419341677202448</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.6676240700630944</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.8081381528367426</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1725,11 +1725,22 @@
       <c r="A114" s="7" t="n">
         <v>45502</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="4" t="n">
         <v>0.6676240700630944</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="4" t="n">
         <v>0.8081381528367426</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.160900072586499</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.6714407340622429</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1736,11 +1736,22 @@
       <c r="A115" s="7" t="n">
         <v>45503</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="4" t="n">
         <v>1.160900072586499</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="4" t="n">
         <v>0.6714407340622429</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.54714273288684</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.5175498352548268</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1747,11 +1747,22 @@
       <c r="A116" s="7" t="n">
         <v>45504</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="4" t="n">
         <v>0.54714273288684</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="4" t="n">
         <v>0.5175498352548268</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5644624304000918</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.7727968547724671</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1758,11 +1758,22 @@
       <c r="A117" s="7" t="n">
         <v>45505</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="4" t="n">
         <v>0.5644624304000918</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="4" t="n">
         <v>0.7727968547724671</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9940456823062407</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.8819860950652049</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1769,11 +1769,22 @@
       <c r="A118" s="7" t="n">
         <v>45506</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="4" t="n">
         <v>0.9940456823062407</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="4" t="n">
         <v>0.8819860950652049</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.002591928685626</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.120177819998803</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1780,11 +1780,22 @@
       <c r="A119" s="7" t="n">
         <v>45509</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="4" t="n">
         <v>1.002591928685626</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="4" t="n">
         <v>1.120177819998803</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.8791444252311856</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.6925797815290675</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1791,11 +1791,22 @@
       <c r="A120" s="7" t="n">
         <v>45510</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="4" t="n">
         <v>0.8791444252311856</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="4" t="n">
         <v>0.6925797815290675</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7543840774610006</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.6920695024311927</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1802,11 +1802,22 @@
       <c r="A121" s="7" t="n">
         <v>45511</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="4" t="n">
         <v>0.7543840774610006</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="4" t="n">
         <v>0.6920695024311927</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.8823564297716714</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4207944408653862</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1813,11 +1813,22 @@
       <c r="A122" s="7" t="n">
         <v>45512</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="4" t="n">
         <v>0.8823564297716714</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="4" t="n">
         <v>0.4207944408653862</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.858885798869651</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.2771850109574504</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1824,11 +1824,22 @@
       <c r="A123" s="7" t="n">
         <v>45513</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="4" t="n">
         <v>0.858885798869651</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="4" t="n">
         <v>0.2771850109574504</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.6328914968303033</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.1286285095344492</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1835,11 +1835,22 @@
       <c r="A124" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="4" t="n">
         <v>0.6328914968303033</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="4" t="n">
         <v>0.1286285095344492</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.2863732234728273</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.2070015881248111</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1846,11 +1846,22 @@
       <c r="A125" s="7" t="n">
         <v>45517</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="4" t="n">
         <v>0.2863732234728273</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="4" t="n">
         <v>0.2070015881248111</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.3596833583870033</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.108730174250077</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1857,11 +1857,22 @@
       <c r="A126" s="7" t="n">
         <v>45518</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="4" t="n">
         <v>0.3596833583870033</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="4" t="n">
         <v>0.108730174250077</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7332536401999049</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.2113331279022541</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1868,11 +1868,22 @@
       <c r="A127" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="4" t="n">
         <v>0.7332536401999049</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="4" t="n">
         <v>0.2113331279022541</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.1014895686240034</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.6400250794011733</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1879,11 +1879,22 @@
       <c r="A128" s="7" t="n">
         <v>45520</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="4" t="n">
         <v>0.1014895686240034</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="4" t="n">
         <v>0.6400250794011733</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.552917673294927</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.4048036860063816</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1890,11 +1890,22 @@
       <c r="A129" s="7" t="n">
         <v>45523</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="4" t="n">
         <v>1.552917673294927</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="4" t="n">
         <v>0.4048036860063816</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.438228809128725</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5217194791623381</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1901,11 +1901,22 @@
       <c r="A130" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="4" t="n">
         <v>0.438228809128725</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="4" t="n">
         <v>0.5217194791623381</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.4654490460679386</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.4001621726709695</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1912,11 +1912,22 @@
       <c r="A131" s="7" t="n">
         <v>45525</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="4" t="n">
         <v>0.4654490460679386</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="4" t="n">
         <v>0.4001621726709695</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.4924889084918143</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5246646926176305</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1923,11 +1923,22 @@
       <c r="A132" s="7" t="n">
         <v>45526</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="4" t="n">
         <v>0.4924889084918143</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="4" t="n">
         <v>0.5246646926176305</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.6582459485224023</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.623875425031882</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1934,11 +1934,22 @@
       <c r="A133" s="7" t="n">
         <v>45527</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="4" t="n">
         <v>0.6582459485224023</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="4" t="n">
         <v>0.623875425031882</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.5818364014251781</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4889647683759545</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1945,11 +1945,22 @@
       <c r="A134" s="7" t="n">
         <v>45530</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="4" t="n">
         <v>0.5818364014251781</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="4" t="n">
         <v>0.4889647683759545</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.6871861208339675</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.3711714262855347</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1956,11 +1956,22 @@
       <c r="A135" s="7" t="n">
         <v>45531</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="4" t="n">
         <v>0.6871861208339675</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="4" t="n">
         <v>0.3711714262855347</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.77291827933208</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.6306317971338344</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1967,11 +1967,22 @@
       <c r="A136" s="7" t="n">
         <v>45532</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="4" t="n">
         <v>0.77291827933208</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="4" t="n">
         <v>0.6306317971338344</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7870545810158304</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.499206061285467</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1978,11 +1978,22 @@
       <c r="A137" s="7" t="n">
         <v>45533</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="4" t="n">
         <v>0.7870545810158304</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="4" t="n">
         <v>0.499206061285467</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.027182807941365</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.6027915511846793</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -1989,11 +1989,22 @@
       <c r="A138" s="7" t="n">
         <v>45534</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="4" t="n">
         <v>1.027182807941365</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="4" t="n">
         <v>0.6027915511846793</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7743548709741949</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.3855398297770983</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2000,11 +2000,22 @@
       <c r="A139" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="4" t="n">
         <v>0.7743548709741949</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="4" t="n">
         <v>0.3855398297770983</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7003664968266738</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.2728167664098078</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2011,11 +2011,22 @@
       <c r="A140" s="7" t="n">
         <v>45538</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="4" t="n">
         <v>0.7003664968266738</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="4" t="n">
         <v>0.2728167664098078</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.6435478930556163</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.3866169699053291</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2022,11 +2022,22 @@
       <c r="A141" s="7" t="n">
         <v>45539</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="4" t="n">
         <v>0.6435478930556163</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="4" t="n">
         <v>0.3866169699053291</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.709442252958506</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.407045463339416</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2033,11 +2033,22 @@
       <c r="A142" s="7" t="n">
         <v>45540</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="4" t="n">
         <v>0.709442252958506</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="4" t="n">
         <v>0.407045463339416</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7872085774841042</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.6888339206662643</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2044,11 +2044,22 @@
       <c r="A143" s="7" t="n">
         <v>45541</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="4" t="n">
         <v>0.7872085774841042</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="4" t="n">
         <v>0.6888339206662643</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.8197422112831142</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.4521995164453632</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2055,11 +2055,22 @@
       <c r="A144" s="7" t="n">
         <v>45544</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="4" t="n">
         <v>0.8197422112831142</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="4" t="n">
         <v>0.4521995164453632</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9929445818006392</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.4153719883047454</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2066,11 +2066,22 @@
       <c r="A145" s="7" t="n">
         <v>45545</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="4" t="n">
         <v>0.9929445818006392</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" s="4" t="n">
         <v>0.4153719883047454</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9199850439334455</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.3409312424761461</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2077,11 +2077,22 @@
       <c r="A146" s="7" t="n">
         <v>45546</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="4" t="n">
         <v>0.9199850439334455</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="4" t="n">
         <v>0.3409312424761461</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7135838462369075</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.3317732063911453</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2088,11 +2088,22 @@
       <c r="A147" s="7" t="n">
         <v>45547</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="4" t="n">
         <v>0.7135838462369075</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="4" t="n">
         <v>0.3317732063911453</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7243597883597883</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.3252143850816128</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2099,11 +2099,22 @@
       <c r="A148" s="7" t="n">
         <v>45548</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="4" t="n">
         <v>0.7243597883597883</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" s="4" t="n">
         <v>0.3252143850816128</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.5050715140463844</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.2390285592433175</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2110,11 +2110,22 @@
       <c r="A149" s="7" t="n">
         <v>45551</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="4" t="n">
         <v>0.5050715140463844</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" s="4" t="n">
         <v>0.2390285592433175</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.6920017108639863</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.177208150470575</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2121,11 +2121,22 @@
       <c r="A150" s="7" t="n">
         <v>45552</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="4" t="n">
         <v>0.6920017108639863</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="4" t="n">
         <v>0.177208150470575</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7819832720408761</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.3624454981525663</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2132,11 +2132,22 @@
       <c r="A151" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="4" t="n">
         <v>0.7819832720408761</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" s="4" t="n">
         <v>0.3624454981525663</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9568995857811951</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.1471434652015194</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2143,11 +2143,22 @@
       <c r="A152" s="7" t="n">
         <v>45554</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="4" t="n">
         <v>0.9568995857811951</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" s="4" t="n">
         <v>0.1471434652015194</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.786498532449179</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.7939571128804983</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2154,10 +2154,21 @@
       <c r="A153" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="4" t="n">
         <v>1.786498532449179</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="4" t="n">
+        <v>0.7939571128804983</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.786498532449179</v>
+      </c>
+      <c r="C154" t="n">
         <v>0.7939571128804983</v>
       </c>
     </row>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2165,11 +2165,22 @@
       <c r="A154" s="7" t="n">
         <v>45558</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="4" t="n">
         <v>1.786498532449179</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="4" t="n">
         <v>0.7939571128804983</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.6147834489030352</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.7106834144801243</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2176,11 +2176,22 @@
       <c r="A155" s="7" t="n">
         <v>45559</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="4" t="n">
         <v>0.6147834489030352</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="4" t="n">
         <v>0.7106834144801243</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7616450471698113</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.9785004496159908</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2187,11 +2187,22 @@
       <c r="A156" s="7" t="n">
         <v>45560</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="4" t="n">
         <v>0.7616450471698113</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="4" t="n">
         <v>0.9785004496159908</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.4135111242080448</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.6205718029930058</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2198,11 +2198,22 @@
       <c r="A157" s="7" t="n">
         <v>45561</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="4" t="n">
         <v>0.4135111242080448</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" s="4" t="n">
         <v>0.6205718029930058</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.8313465413028879</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.8721628902025416</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2209,11 +2209,22 @@
       <c r="A158" s="7" t="n">
         <v>45562</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="4" t="n">
         <v>0.8313465413028879</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="4" t="n">
         <v>0.8721628902025416</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.8623010459299681</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.8506089898932202</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2220,11 +2220,22 @@
       <c r="A159" s="7" t="n">
         <v>45565</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="4" t="n">
         <v>0.8623010459299681</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" s="4" t="n">
         <v>0.8506089898932202</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.765350669070893</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.9231934249661455</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2231,11 +2231,22 @@
       <c r="A160" s="7" t="n">
         <v>45566</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="4" t="n">
         <v>0.765350669070893</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" s="4" t="n">
         <v>0.9231934249661455</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="n">
+        <v>45567</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.090108638514105</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.6125020431009438</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2242,11 +2242,22 @@
       <c r="A161" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="4" t="n">
         <v>1.090108638514105</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" s="4" t="n">
         <v>0.6125020431009438</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.5952263678528916</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.4941856645719021</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2253,11 +2253,22 @@
       <c r="A162" s="7" t="n">
         <v>45568</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="4" t="n">
         <v>0.5952263678528916</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" s="4" t="n">
         <v>0.4941856645719021</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.133139510026081</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.5805155892207656</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2264,11 +2264,22 @@
       <c r="A163" s="7" t="n">
         <v>45569</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="4" t="n">
         <v>1.133139510026081</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="4" t="n">
         <v>0.5805155892207656</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="7" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9991231641248864</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.5122593007044592</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbova.xlsx
+++ b/pcrbova.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
@@ -2275,11 +2275,22 @@
       <c r="A164" s="7" t="n">
         <v>45572</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="4" t="n">
         <v>0.9991231641248864</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" s="4" t="n">
         <v>0.5122593007044592</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.028754692226393</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5570791303396277</v>
       </c>
     </row>
     <row r="1048558" ht="12.75" customHeight="1" s="5"/>
